--- a/it-analytics/TABLE_DATA.xlsx
+++ b/it-analytics/TABLE_DATA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Budget Report\OVERHAUL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A15C958-9ADD-4897-84D9-2CFFA10EE2F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D3C1772-2215-4AA9-840E-E925C1803867}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{EE26E715-2C65-4D21-8E54-182C99E81E68}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="71">
   <si>
     <t>id</t>
   </si>
@@ -234,6 +234,12 @@
   </si>
   <si>
     <t>These are tables utilized by the module, data_interactions.py</t>
+  </si>
+  <si>
+    <t>Same as id=9, except does not format the numerical columns. This is for Excel, where using id=9 renders text formats that don't render correctly.</t>
+  </si>
+  <si>
+    <t>SELECT * FROM [ITAnalytics].[dbo].[fn_BudgetActual_no_numeric_format](Amp) ORDER BY ACCT</t>
   </si>
 </sst>
 </file>
@@ -622,11 +628,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3083E25-3424-4719-8C29-7F6F5197F8C0}">
-  <dimension ref="A1:J20"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1169,6 +1173,38 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H21" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" t="s">
+        <v>70</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1177,11 +1213,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA021C38-53D4-411E-ADC3-3861390E4DEC}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1257,6 +1291,23 @@
         <v>6</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
